--- a/01_Input/00_CO Validation/Maldives - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Maldives - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="657" documentId="8_{8CAB50D8-CF81-BC4A-BCD6-641596546354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E8E2733-5C21-4F90-8710-45C8A7DBC4A3}"/>
+  <xr:revisionPtr revIDLastSave="667" documentId="8_{8CAB50D8-CF81-BC4A-BCD6-641596546354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{369A08B9-F5C2-4DB4-A5CB-8B028286B057}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,12 +445,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -572,50 +572,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -638,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -831,52 +791,13 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -886,25 +807,6 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -913,17 +815,83 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1229,42 +1197,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57C0583-E09D-4D51-BD15-84D2EB417CAA}">
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4:I4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="4" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="4"/>
-    <col min="13" max="13" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="25.85546875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="15.7109375" style="115" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="115" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="118" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="115" customWidth="1"/>
+    <col min="6" max="6" width="35" style="115" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="116" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="115" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="115" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="115" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="115"/>
+    <col min="13" max="13" width="8.85546875" style="115"/>
+    <col min="14" max="14" width="25.85546875" style="115" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" style="115" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -1288,10 +1256,10 @@
       <c r="K1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="107" t="s">
+      <c r="M1" s="87" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="64" t="s">
@@ -1310,17 +1278,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A2" s="54">
+    <row r="2" spans="1:18" s="9" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A2" s="92">
         <v>130247</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="106">
+      <c r="D2" s="86">
         <v>1100000</v>
       </c>
       <c r="E2" s="45" t="s">
@@ -1338,7 +1306,7 @@
       <c r="I2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="111" t="s">
+      <c r="J2" s="91" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="69"/>
@@ -1355,14 +1323,13 @@
       <c r="P2" s="68"/>
       <c r="Q2" s="68"/>
       <c r="R2" s="68"/>
-      <c r="S2" s="25"/>
-    </row>
-    <row r="3" spans="1:19" s="10" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="96" t="s">
+    </row>
+    <row r="3" spans="1:18" s="10" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A3" s="93"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="83" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -1378,7 +1345,7 @@
         <v>29</v>
       </c>
       <c r="J3" s="20"/>
-      <c r="K3" s="110"/>
+      <c r="K3" s="90"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="25" t="s">
@@ -1390,14 +1357,13 @@
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
-      <c r="S3" s="20"/>
-    </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" ht="45.75">
-      <c r="A4" s="101"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="96"/>
+    </row>
+    <row r="4" spans="1:18" s="10" customFormat="1" ht="45.75">
+      <c r="A4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="112" t="s">
         <v>30</v>
       </c>
@@ -1407,7 +1373,7 @@
       <c r="H4" s="113"/>
       <c r="I4" s="114"/>
       <c r="J4" s="74"/>
-      <c r="K4" s="108"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="25" t="s">
@@ -1419,9 +1385,8 @@
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
-      <c r="S4" s="20"/>
-    </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" ht="45.75">
+    </row>
+    <row r="5" spans="1:18" s="10" customFormat="1" ht="45.75">
       <c r="A5" s="74">
         <v>94293</v>
       </c>
@@ -1466,9 +1431,8 @@
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
-      <c r="S5" s="20"/>
-    </row>
-    <row r="6" spans="1:19" s="10" customFormat="1" ht="65.25" customHeight="1">
+    </row>
+    <row r="6" spans="1:18" s="10" customFormat="1" ht="65.25" customHeight="1">
       <c r="A6" s="11">
         <v>130474</v>
       </c>
@@ -1499,7 +1463,7 @@
       <c r="J6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="108"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="20" t="s">
         <v>24</v>
       </c>
@@ -1513,9 +1477,8 @@
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
-      <c r="S6" s="20"/>
-    </row>
-    <row r="7" spans="1:19" s="10" customFormat="1">
+    </row>
+    <row r="7" spans="1:18" s="10" customFormat="1">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="43"/>
@@ -1526,803 +1489,10 @@
       <c r="H7" s="42"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:19" s="10" customFormat="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="45"/>
-    </row>
-    <row r="9" spans="1:19" s="10" customFormat="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="45"/>
-    </row>
-    <row r="10" spans="1:19" s="9" customFormat="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:19" s="9" customFormat="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="45"/>
-    </row>
-    <row r="12" spans="1:19" s="9" customFormat="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="45"/>
-    </row>
-    <row r="13" spans="1:19" s="9" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="45"/>
-    </row>
-    <row r="14" spans="1:19" s="9" customFormat="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="45"/>
-    </row>
-    <row r="15" spans="1:19" s="9" customFormat="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="45"/>
-    </row>
-    <row r="16" spans="1:19" s="9" customFormat="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="45"/>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" ht="93.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="48"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="F19" s="51"/>
-      <c r="H19" s="51"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="F20" s="51"/>
-      <c r="H20" s="51"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="G21" s="50"/>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="H22"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
+    <row r="8" spans="1:18">
+      <c r="C8" s="117"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="D19:D25"/>
-  </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R6" xr:uid="{B9B142FD-CB0E-4605-A61A-C94195D80DBA}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
@@ -2353,7 +1523,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E31</xm:sqref>
+          <xm:sqref>E3:E12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2387,16 +1557,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -2493,11 +1663,7 @@
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="83" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -2525,11 +1691,10 @@
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" s="10" customFormat="1" ht="45.75">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="14" t="s">
         <v>30</v>
       </c>
@@ -2776,58 +1941,58 @@
       <c r="H18" s="48"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
       <c r="F19" s="51"/>
       <c r="H19" s="51"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
       <c r="F20" s="51"/>
       <c r="H20" s="51"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
       <c r="G21" s="50"/>
       <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
       <c r="H22"/>
       <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
       <c r="F23" s="53"/>
       <c r="G23" s="50"/>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="56"/>
@@ -3821,10 +2986,10 @@
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="85"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
       <c r="G21" s="29"/>
@@ -3832,10 +2997,10 @@
       <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="85"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="107"/>
       <c r="E22" s="27"/>
       <c r="F22" s="28"/>
       <c r="G22" s="29"/>
@@ -3843,10 +3008,10 @@
       <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="85"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="26"/>
@@ -3854,10 +3019,10 @@
       <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="85"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
       <c r="G24" s="29"/>
@@ -3865,10 +3030,10 @@
       <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="85"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
       <c r="E25" s="27"/>
       <c r="F25" s="32"/>
       <c r="G25" s="26"/>
@@ -3876,10 +3041,10 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="85"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
       <c r="G26" s="29"/>
@@ -3887,10 +3052,10 @@
       <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="85"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="29"/>
@@ -4568,7 +3733,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="108" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
@@ -4579,7 +3744,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="108"/>
       <c r="B3" t="s">
         <v>55</v>
       </c>
@@ -4588,7 +3753,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="88"/>
+      <c r="A4" s="108"/>
       <c r="B4" t="s">
         <v>57</v>
       </c>
@@ -4597,7 +3762,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="109" t="s">
         <v>59</v>
       </c>
       <c r="B5" t="s">
@@ -4608,7 +3773,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="109"/>
       <c r="B6" t="s">
         <v>61</v>
       </c>
@@ -4617,7 +3782,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="109"/>
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -4626,7 +3791,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="109"/>
       <c r="B8" t="s">
         <v>64</v>
       </c>
@@ -4635,7 +3800,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="109"/>
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -4644,7 +3809,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="110" t="s">
         <v>67</v>
       </c>
       <c r="B10" t="s">
@@ -4655,7 +3820,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="90"/>
+      <c r="A11" s="110"/>
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -4664,7 +3829,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="111" t="s">
         <v>72</v>
       </c>
       <c r="B12" t="s">
@@ -4675,7 +3840,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="91"/>
+      <c r="A13" s="111"/>
       <c r="B13" t="s">
         <v>75</v>
       </c>
@@ -4684,7 +3849,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="91"/>
+      <c r="A14" s="111"/>
       <c r="B14" t="s">
         <v>77</v>
       </c>
@@ -4726,17 +3891,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4745,7 +3899,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -4994,14 +4148,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2B1ADB-E196-4325-983D-4FD97D011467}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2B1ADB-E196-4325-983D-4FD97D011467}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
--- a/01_Input/00_CO Validation/Maldives - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Maldives - Energy Projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="698" documentId="8_{8CAB50D8-CF81-BC4A-BCD6-641596546354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{512ACBC7-8CD6-498B-83C0-B9E93875DDFA}"/>
+  <xr:revisionPtr revIDLastSave="703" documentId="8_{8CAB50D8-CF81-BC4A-BCD6-641596546354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBC81C01-DB30-4E3D-AEF9-9D01207E13B8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="95">
   <si>
     <t>Project ID</t>
   </si>
@@ -152,50 +152,53 @@
     <t>GCF-Managing Climate Change Induced Water Shortages</t>
   </si>
   <si>
+    <t>https://open.undp.org/projects/00094293</t>
+  </si>
+  <si>
+    <t>Water Services</t>
+  </si>
+  <si>
+    <t>Beneficiaries of the Project - 105,000 people
+No. of Solar PV backed Integrated Water Resource Management system / RO plants</t>
+  </si>
+  <si>
+    <t>GEF</t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>Project For Developing Sustainable Agricultural Economy</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00142132</t>
+  </si>
+  <si>
+    <t>500 contract farmers across Maldives</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Transport Services</t>
+  </si>
+  <si>
+    <t>Greater Male' area population of 212,138 people
+No. of solar PV backed charging stations available in greater Male' region to support EV public transport network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to the CO: Please provide a more conservative estimate for beneficiaries, not the entire population
+CO Response: The ridership of the EV bus routes is approximately 4000 per week. </t>
+  </si>
+  <si>
+    <t>Agricultural Services</t>
+  </si>
+  <si>
     <t>https://open.undp.org/projects/00094293
 PIMS+</t>
-  </si>
-  <si>
-    <t>Water Services</t>
-  </si>
-  <si>
-    <t>Beneficiaries of the Project - 105,000 people
-No. of Solar PV backed Integrated Water Resource Management system / RO plants</t>
-  </si>
-  <si>
-    <t>GEF</t>
-  </si>
-  <si>
-    <t>VF</t>
-  </si>
-  <si>
-    <t>Project For Developing Sustainable Agricultural Economy</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00142132</t>
-  </si>
-  <si>
-    <t>500 contract farmers across Maldives</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Transport Services</t>
-  </si>
-  <si>
-    <t>Greater Male' area population of 212,138 people
-No. of solar PV backed charging stations available in greater Male' region to support EV public transport network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to the CO: Please provide a more conservative estimate for beneficiaries, not the entire population
-CO Response: The ridership of the EV bus routes is approximately 4000 per week. </t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -596,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -806,10 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1194,9 +1193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57C0583-E09D-4D51-BD15-84D2EB417CAA}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1258,31 +1257,31 @@
       <c r="K1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="102" t="s">
+      <c r="L1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="102" t="s">
+      <c r="N1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="102" t="s">
+      <c r="O1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="P1" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="103" t="s">
+      <c r="Q1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="104" t="s">
+      <c r="R1" s="102" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="104" t="s">
+      <c r="T1" s="102" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="85" t="s">
@@ -1291,12 +1290,12 @@
     </row>
     <row r="2" spans="1:26" s="6" customFormat="1" ht="137.25">
       <c r="A2" s="88">
-        <v>130247</v>
-      </c>
-      <c r="B2" s="91" t="s">
+        <v>141744</v>
+      </c>
+      <c r="B2" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="92" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="83">
@@ -1321,11 +1320,11 @@
         <v>26</v>
       </c>
       <c r="K2" s="66"/>
-      <c r="L2" s="105" t="s">
+      <c r="L2" s="103" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="23"/>
-      <c r="N2" s="106" t="s">
+      <c r="N2" s="104" t="s">
         <v>28</v>
       </c>
       <c r="O2" s="23"/>
@@ -1347,7 +1346,6 @@
       </c>
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1" ht="45.75">
-      <c r="A3" s="89"/>
       <c r="B3" s="74"/>
       <c r="C3" s="74"/>
       <c r="D3" s="71"/>
@@ -1368,11 +1366,11 @@
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="86"/>
-      <c r="L3" s="105" t="s">
+      <c r="L3" s="103" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="N3" s="106" t="s">
+      <c r="N3" s="104" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="23"/>
@@ -1392,26 +1390,25 @@
       </c>
     </row>
     <row r="4" spans="1:26" s="7" customFormat="1" ht="45.75">
-      <c r="A4" s="90"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="80"/>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="97">
+      <c r="G4" s="95">
         <v>5</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
       <c r="J4" s="71"/>
       <c r="K4" s="84"/>
-      <c r="L4" s="105" t="s">
+      <c r="L4" s="103" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="23"/>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="104" t="s">
         <v>28</v>
       </c>
       <c r="O4" s="23"/>
@@ -1462,11 +1459,11 @@
         <v>39</v>
       </c>
       <c r="K5" s="73"/>
-      <c r="L5" s="105" t="s">
+      <c r="L5" s="103" t="s">
         <v>40</v>
       </c>
       <c r="M5" s="23"/>
-      <c r="N5" s="106" t="s">
+      <c r="N5" s="104" t="s">
         <v>28</v>
       </c>
       <c r="O5" s="23"/>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="6" spans="1:26" s="7" customFormat="1" ht="65.25" customHeight="1">
       <c r="A6" s="8">
-        <v>130474</v>
+        <v>142132</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>41</v>
@@ -1519,11 +1516,11 @@
         <v>26</v>
       </c>
       <c r="K6" s="84"/>
-      <c r="L6" s="105" t="s">
+      <c r="L6" s="103" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="106" t="s">
+      <c r="N6" s="104" t="s">
         <v>28</v>
       </c>
       <c r="O6" s="23"/>
@@ -1556,7 +1553,7 @@
       <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="C8" s="99"/>
+      <c r="C8" s="97"/>
     </row>
   </sheetData>
   <dataValidations count="10">
@@ -1593,7 +1590,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{F8427973-C397-4925-81CE-9E5A55F828B3}"/>
-    <hyperlink ref="C5" r:id="rId2" display="https://open.undp.org/projects/00094293" xr:uid="{C7DDC491-2558-4E1D-ADAA-4477426A4D68}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{C7DDC491-2558-4E1D-ADAA-4477426A4D68}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{3AA6A34F-1FDA-4182-B54C-0E9DEAD4C7CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1812,7 +1809,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D5" s="70">
         <v>23636364</v>
@@ -2028,58 +2025,58 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="107"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="108"/>
       <c r="F19" s="48"/>
       <c r="H19" s="48"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="108"/>
       <c r="F20" s="48"/>
       <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="107"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
       <c r="G21" s="47"/>
       <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
       <c r="H22"/>
       <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="107"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="108"/>
       <c r="F23" s="50"/>
       <c r="G23" s="47"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="110"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="108"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="108"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="53"/>
@@ -2807,10 +2804,10 @@
         <v>1100000</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -2819,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="45.75">
@@ -2831,7 +2828,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="8">
         <v>5</v>
@@ -2890,7 +2887,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D7" s="10">
         <v>23636364</v>
@@ -2899,7 +2896,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="12">
         <v>5</v>
@@ -2908,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="30.75">
@@ -2928,7 +2925,7 @@
         <v>49</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -3073,10 +3070,10 @@
       <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="112"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -3084,10 +3081,10 @@
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="112"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
@@ -3095,10 +3092,10 @@
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="112"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="114"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="23"/>
@@ -3106,10 +3103,10 @@
       <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="112"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="114"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="112"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="26"/>
@@ -3117,10 +3114,10 @@
       <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="112"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="114"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="24"/>
       <c r="F25" s="29"/>
       <c r="G25" s="23"/>
@@ -3128,10 +3125,10 @@
       <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="112"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="114"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="26"/>
@@ -3139,10 +3136,10 @@
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="112"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="114"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="26"/>
@@ -3797,7 +3794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3806,179 +3803,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="98" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30.75">
-      <c r="A2" s="115" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="101" t="s">
+      <c r="A2" s="113" t="s">
         <v>58</v>
       </c>
+      <c r="B2" s="99" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="101" t="s">
+      <c r="A3" s="113" t="s">
         <v>60</v>
       </c>
+      <c r="B3" s="99" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
-      <c r="A4" s="115" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="101" t="s">
+      <c r="A4" s="113" t="s">
         <v>62</v>
       </c>
+      <c r="B4" s="99" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="101" t="s">
+      <c r="A5" s="113" t="s">
         <v>64</v>
       </c>
+      <c r="B5" s="99" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="45.75">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="101" t="s">
-        <v>65</v>
+      <c r="B6" s="99" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.75">
-      <c r="A7" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="101" t="s">
+      <c r="A7" s="113" t="s">
         <v>67</v>
       </c>
+      <c r="B7" s="99" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="30.75">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="101" t="s">
-        <v>68</v>
+      <c r="B8" s="99" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30.75">
-      <c r="A9" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="101" t="s">
+      <c r="A9" s="113" t="s">
         <v>70</v>
       </c>
+      <c r="B9" s="99" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="116" t="s">
-        <v>71</v>
+      <c r="B10" s="114" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="115" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="116" t="s">
+      <c r="A11" s="113" t="s">
         <v>73</v>
       </c>
+      <c r="B11" s="114" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="30.75">
-      <c r="A12" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="101" t="s">
+      <c r="A12" s="113" t="s">
         <v>75</v>
       </c>
+      <c r="B12" s="99" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="116" t="s">
-        <v>76</v>
+      <c r="A13" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="114" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="116" t="s">
+      <c r="A14" s="113" t="s">
         <v>78</v>
       </c>
+      <c r="B14" s="114" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="116" t="s">
+      <c r="A15" s="113" t="s">
         <v>80</v>
       </c>
+      <c r="B15" s="114" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="116" t="s">
+      <c r="A16" s="113" t="s">
         <v>82</v>
       </c>
+      <c r="B16" s="114" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="115" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="101" t="s">
+      <c r="A17" s="113" t="s">
         <v>84</v>
       </c>
+      <c r="B17" s="99" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="115" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="116" t="s">
+      <c r="A18" s="113" t="s">
         <v>86</v>
       </c>
+      <c r="B18" s="114" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="45.75">
-      <c r="A19" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="116" t="s">
+      <c r="A19" s="113" t="s">
         <v>88</v>
       </c>
+      <c r="B19" s="114" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="116" t="s">
+      <c r="A20" s="113" t="s">
         <v>90</v>
       </c>
+      <c r="B20" s="114" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="30.75">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="117" t="s">
-        <v>91</v>
+      <c r="B21" s="115" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="116" t="s">
+      <c r="A22" s="113" t="s">
         <v>93</v>
+      </c>
+      <c r="B22" s="114" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3987,17 +3984,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -4022,6 +4010,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4101,6 +4090,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4244,6 +4238,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4256,11 +4259,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A45A6CB-C896-45F7-BD50-B705618876B9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2B1ADB-E196-4325-983D-4FD97D011467}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
